--- a/OnBoard/data/catch_sample_disattivati.xlsx
+++ b/OnBoard/data/catch_sample_disattivati.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20383"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20392"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="21" documentId="11_F25DC773A252ABEACE02ECEC0B186F365ADE58A2" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{B6BA6E74-1F95-4DC2-A330-59C6A0F4E465}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="11_F25DC773A252ABEACE02ECEC0B186F365ADE58A2" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{05991F8A-C77B-4B1F-A100-7EC0C2541B49}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,18 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>D</t>
   </si>
   <si>
     <t>AEQUOPE</t>
-  </si>
-  <si>
-    <t>SOLEVUL</t>
-  </si>
-  <si>
-    <t>A</t>
   </si>
   <si>
     <t>Station</t>
@@ -358,10 +352,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -373,13 +367,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
         <v>4</v>
-      </c>
-      <c r="B1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -391,28 +385,6 @@
       </c>
       <c r="C2" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>55</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
